--- a/DSA Placement Training/Copy of DS_ALGO_CRACKINTERVIEW(1).xlsx
+++ b/DSA Placement Training/Copy of DS_ALGO_CRACKINTERVIEW(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545C6CC0-AC79-4D82-ABA6-7AB106DDDC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14CE6C9-2A99-4D44-AAB1-A39187FC7A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="28695" yWindow="-870" windowWidth="14610" windowHeight="15585" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="471">
   <si>
     <t>Topic:</t>
   </si>
@@ -1502,6 +1502,9 @@
   </si>
   <si>
     <t>Problem No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
   </si>
 </sst>
 </file>
@@ -1970,8 +1973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="B120" zoomScale="69" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
@@ -2050,6 +2053,12 @@
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="21">
       <c r="A11" s="3" t="s">
@@ -2072,6 +2081,12 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="21">
       <c r="A13" s="3" t="s">
@@ -2080,6 +2095,12 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21">
       <c r="A14" s="3" t="s">
@@ -2088,6 +2109,12 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="21">
       <c r="A15" s="3" t="s">
@@ -2096,6 +2123,12 @@
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="C15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="3" t="s">
@@ -2104,88 +2137,154 @@
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="21">
+      <c r="C16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="21">
+      <c r="C17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="21">
+      <c r="C18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="21">
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="21">
+      <c r="C20" t="s">
+        <v>468</v>
+      </c>
+      <c r="D20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="21">
+      <c r="C21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="21">
+      <c r="C22" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="21">
+      <c r="C23" t="s">
+        <v>468</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="21">
+      <c r="C24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="21">
+      <c r="C25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="21">
+      <c r="C26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -2201,7 +2300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -2217,7 +2316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -2233,7 +2332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -2241,7 +2340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21">
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -2249,7 +2348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21">
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21">
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
@@ -2265,7 +2364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21">
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -2273,7 +2372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21">
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
@@ -2281,7 +2380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21">
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
@@ -2289,7 +2388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21">
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="3" t="s">
         <v>2</v>
       </c>
@@ -2297,7 +2396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21">
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="3" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21">
+    <row r="42" spans="1:4" ht="21">
       <c r="A42" s="3" t="s">
         <v>2</v>
       </c>
@@ -2313,7 +2412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
@@ -2321,36 +2420,54 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:2" ht="21">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="21">
+      <c r="C46" t="s">
+        <v>468</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="21">
+      <c r="C47" t="s">
+        <v>468</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>468</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2360,6 +2477,12 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="21">
       <c r="A50" s="6" t="s">
@@ -2368,6 +2491,12 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="21">
       <c r="A51" s="6" t="s">
@@ -2376,6 +2505,12 @@
       <c r="B51" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="C51" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51">
+        <v>37</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="21">
       <c r="A52" s="6" t="s">
@@ -2384,6 +2519,12 @@
       <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D52">
+        <v>38</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="21">
       <c r="A53" s="6" t="s">
@@ -2392,6 +2533,12 @@
       <c r="B53" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="C53" t="s">
+        <v>468</v>
+      </c>
+      <c r="D53">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="21">
       <c r="A54" s="6" t="s">
@@ -2400,6 +2547,12 @@
       <c r="B54" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C54" t="s">
+        <v>468</v>
+      </c>
+      <c r="D54">
+        <v>51</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="21">
       <c r="A55" s="3" t="s">
@@ -2408,6 +2561,12 @@
       <c r="B55" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="19.8">
       <c r="A56" s="3"/>
@@ -2437,6 +2596,12 @@
       <c r="B59" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="21">
       <c r="A60" s="3" t="s">
@@ -2445,6 +2610,12 @@
       <c r="B60" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="C60" t="s">
+        <v>468</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="21">
       <c r="A61" s="3" t="s">
@@ -2461,6 +2632,12 @@
       <c r="B62" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C62" t="s">
+        <v>468</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="21">
       <c r="A63" s="3" t="s">
@@ -2469,6 +2646,12 @@
       <c r="B63" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63">
+        <v>26</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="21">
       <c r="A64" s="3" t="s">
@@ -2477,88 +2660,154 @@
       <c r="B64" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="21">
+      <c r="C64" t="s">
+        <v>468</v>
+      </c>
+      <c r="D64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="21">
+      <c r="C65" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="21">
+      <c r="C66" t="s">
+        <v>468</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="21">
+      <c r="C67" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="21">
+      <c r="C68" t="s">
+        <v>468</v>
+      </c>
+      <c r="D68">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="21">
+      <c r="C69" t="s">
+        <v>468</v>
+      </c>
+      <c r="D69">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="21">
+      <c r="C70" t="s">
+        <v>468</v>
+      </c>
+      <c r="D70">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="21">
+      <c r="C71" t="s">
+        <v>468</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="21">
+      <c r="C72" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="21">
+      <c r="C73" t="s">
+        <v>468</v>
+      </c>
+      <c r="D73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="21">
+      <c r="C74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D74">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="3" t="s">
         <v>50</v>
       </c>
@@ -2566,7 +2815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="3" t="s">
         <v>50</v>
       </c>
@@ -2574,7 +2823,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21">
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="3" t="s">
         <v>50</v>
       </c>
@@ -2582,7 +2831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21">
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="3" t="s">
         <v>50</v>
       </c>
@@ -2590,7 +2839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21">
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="3" t="s">
         <v>50</v>
       </c>
@@ -2598,7 +2847,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21">
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="3" t="s">
         <v>50</v>
       </c>
@@ -2794,6 +3043,12 @@
       <c r="B104" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C104" t="s">
+        <v>468</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="21">
       <c r="A105" s="3" t="s">
@@ -2802,6 +3057,12 @@
       <c r="B105" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="C105" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105">
+        <v>16</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="21">
       <c r="A106" s="3" t="s">
@@ -2810,6 +3071,12 @@
       <c r="B106" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="C106" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="21">
       <c r="A107" s="3" t="s">
@@ -2818,6 +3085,12 @@
       <c r="B107" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="C107" t="s">
+        <v>468</v>
+      </c>
+      <c r="D107">
+        <v>18</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="21">
       <c r="A108" s="3" t="s">
@@ -2826,6 +3099,12 @@
       <c r="B108" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C108" t="s">
+        <v>468</v>
+      </c>
+      <c r="D108">
+        <v>29</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="21">
       <c r="A109" s="3" t="s">
@@ -2834,6 +3113,12 @@
       <c r="B109" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="C109" t="s">
+        <v>468</v>
+      </c>
+      <c r="D109">
+        <v>31</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="21">
       <c r="A110" s="3" t="s">
@@ -2842,6 +3127,12 @@
       <c r="B110" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="C110" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110">
+        <v>32</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="21">
       <c r="A111" s="3" t="s">
@@ -2850,6 +3141,12 @@
       <c r="B111" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="C111" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111">
+        <v>43</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="21">
       <c r="A112" s="3" t="s">
@@ -2858,64 +3155,112 @@
       <c r="B112" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="21">
+      <c r="C112" t="s">
+        <v>468</v>
+      </c>
+      <c r="D112">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="21">
+      <c r="C113" t="s">
+        <v>468</v>
+      </c>
+      <c r="D113">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="21">
+      <c r="C114" t="s">
+        <v>468</v>
+      </c>
+      <c r="D114">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="21">
+      <c r="C115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D115">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="21">
+      <c r="C116" t="s">
+        <v>468</v>
+      </c>
+      <c r="D116">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="21">
+      <c r="C117" t="s">
+        <v>468</v>
+      </c>
+      <c r="D117">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="21">
+      <c r="C118" t="s">
+        <v>468</v>
+      </c>
+      <c r="D118">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="21">
+      <c r="C119" t="s">
+        <v>468</v>
+      </c>
+      <c r="D119">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="3" t="s">
         <v>94</v>
       </c>
@@ -2923,7 +3268,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="3" t="s">
         <v>94</v>
       </c>
@@ -2931,7 +3276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="21">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="3" t="s">
         <v>94</v>
       </c>
@@ -2939,7 +3284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="3" t="s">
         <v>94</v>
       </c>
@@ -2947,7 +3292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="21">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="3" t="s">
         <v>94</v>
       </c>
@@ -2955,7 +3300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="21">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="3" t="s">
         <v>94</v>
       </c>
@@ -2963,7 +3308,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="21">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="3" t="s">
         <v>94</v>
       </c>
@@ -2971,7 +3316,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="21">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="3" t="s">
         <v>94</v>
       </c>
@@ -2979,7 +3324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="21">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="3" t="s">
         <v>94</v>
       </c>
@@ -2987,7 +3332,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21">
+    <row r="129" spans="1:4" ht="21">
       <c r="A129" s="3" t="s">
         <v>94</v>
       </c>
@@ -2995,7 +3340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="21">
+    <row r="130" spans="1:4" ht="21">
       <c r="A130" s="3" t="s">
         <v>94</v>
       </c>
@@ -3003,7 +3348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="21">
+    <row r="131" spans="1:4" ht="21">
       <c r="A131" s="3" t="s">
         <v>94</v>
       </c>
@@ -3011,7 +3356,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="21">
+    <row r="132" spans="1:4" ht="21">
       <c r="A132" s="3" t="s">
         <v>94</v>
       </c>
@@ -3019,7 +3364,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="21">
+    <row r="133" spans="1:4" ht="21">
       <c r="A133" s="3" t="s">
         <v>94</v>
       </c>
@@ -3027,7 +3372,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="21">
+    <row r="134" spans="1:4" ht="21">
       <c r="A134" s="3" t="s">
         <v>94</v>
       </c>
@@ -3035,7 +3380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="21">
+    <row r="135" spans="1:4" ht="21">
       <c r="A135" s="3" t="s">
         <v>94</v>
       </c>
@@ -3043,7 +3388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="21">
+    <row r="136" spans="1:4" ht="21">
       <c r="A136" s="3" t="s">
         <v>94</v>
       </c>
@@ -3051,7 +3396,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="21">
+    <row r="137" spans="1:4" ht="21">
       <c r="A137" s="9" t="s">
         <v>462</v>
       </c>
@@ -3059,7 +3404,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="21">
+    <row r="138" spans="1:4" ht="21">
       <c r="A138" s="9" t="s">
         <v>462</v>
       </c>
@@ -3067,96 +3412,156 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.8">
+    <row r="139" spans="1:4" ht="19.8">
       <c r="A139" s="6"/>
     </row>
-    <row r="140" spans="1:2" ht="36.6">
+    <row r="140" spans="1:4" ht="36.6">
       <c r="A140" s="6"/>
       <c r="B140" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="21">
+    <row r="141" spans="1:4" ht="21">
       <c r="A141" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="21">
+      <c r="C141" t="s">
+        <v>468</v>
+      </c>
+      <c r="D141">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="21">
       <c r="A142" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="21">
+      <c r="C142" t="s">
+        <v>468</v>
+      </c>
+      <c r="D142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="21">
       <c r="A143" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="21">
+      <c r="C143" t="s">
+        <v>468</v>
+      </c>
+      <c r="D143">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="21">
       <c r="A144" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="21">
+      <c r="C144" t="s">
+        <v>468</v>
+      </c>
+      <c r="D144">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="21">
+      <c r="C145" t="s">
+        <v>468</v>
+      </c>
+      <c r="D145">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="21">
+      <c r="C146" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="21">
+      <c r="C147" t="s">
+        <v>468</v>
+      </c>
+      <c r="D147">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="21">
+      <c r="C148" t="s">
+        <v>468</v>
+      </c>
+      <c r="D148">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="21">
+      <c r="C149" t="s">
+        <v>468</v>
+      </c>
+      <c r="D149">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="21">
+      <c r="C150" t="s">
+        <v>468</v>
+      </c>
+      <c r="D150">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="6" t="s">
         <v>131</v>
       </c>
@@ -3164,7 +3569,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="21">
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="6" t="s">
         <v>131</v>
       </c>
@@ -3172,7 +3577,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="21">
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="6" t="s">
         <v>131</v>
       </c>
@@ -3180,7 +3585,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="21">
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="6" t="s">
         <v>131</v>
       </c>
@@ -3188,7 +3593,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="21">
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="6" t="s">
         <v>131</v>
       </c>
@@ -3196,7 +3601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="21">
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="6" t="s">
         <v>131</v>
       </c>
@@ -3204,7 +3609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="21">
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="6" t="s">
         <v>131</v>
       </c>
@@ -3212,7 +3617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="21">
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="6" t="s">
         <v>131</v>
       </c>
@@ -3220,7 +3625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="21">
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="6" t="s">
         <v>131</v>
       </c>
@@ -3228,7 +3633,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="21">
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="6" t="s">
         <v>131</v>
       </c>
@@ -3364,30 +3769,42 @@
         <v>167</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.8">
+    <row r="177" spans="1:4" ht="19.8">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:2" ht="21">
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="3"/>
       <c r="B178" s="5"/>
     </row>
-    <row r="179" spans="1:2" ht="21">
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="21">
+      <c r="C179" t="s">
+        <v>468</v>
+      </c>
+      <c r="D179">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="21">
+      <c r="C180" t="s">
+        <v>468</v>
+      </c>
+      <c r="D180">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="3" t="s">
         <v>168</v>
       </c>
@@ -3395,7 +3812,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="21">
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="3" t="s">
         <v>168</v>
       </c>
@@ -3403,7 +3820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="21">
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="3" t="s">
         <v>168</v>
       </c>
@@ -3411,7 +3828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="21">
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="3" t="s">
         <v>168</v>
       </c>
@@ -3419,7 +3836,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="21">
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="3" t="s">
         <v>168</v>
       </c>
@@ -3427,7 +3844,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="21">
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="3" t="s">
         <v>168</v>
       </c>
@@ -3435,7 +3852,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="21">
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="3" t="s">
         <v>168</v>
       </c>
@@ -3443,7 +3860,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="21">
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="3" t="s">
         <v>168</v>
       </c>
@@ -3451,7 +3868,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="21">
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="3" t="s">
         <v>168</v>
       </c>
@@ -3459,7 +3876,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="21">
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="3" t="s">
         <v>168</v>
       </c>
@@ -3467,7 +3884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="21">
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="3" t="s">
         <v>168</v>
       </c>
@@ -3475,7 +3892,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="21">
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="3" t="s">
         <v>168</v>
       </c>
